--- a/excel/18.xlsx
+++ b/excel/18.xlsx
@@ -900,7 +900,7 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
-          <t>安全工程专业导论刘义鑫 (12-19周) 安全工程2021-2</t>
+          <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
         </is>
       </c>
       <c r="X4" t="inlineStr"/>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>当代中国经济专题*孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
+          <t>当代中国经济专题*李丽丽,孟文强,孙江永,赵金凯 (11-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -6754,11 +6754,7 @@
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
       <c r="P85" t="inlineStr"/>
       <c r="Q85" t="inlineStr">
@@ -6776,11 +6772,7 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
           <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>

--- a/excel/18.xlsx
+++ b/excel/18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK86"/>
+  <dimension ref="A1:AK87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -761,8 +761,10 @@
       <c r="AE2" t="n">
         <v>708</v>
       </c>
-      <c r="AF2" t="n">
-        <v>910</v>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>0910</t>
+        </is>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -805,16 +807,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
@@ -824,11 +822,7 @@
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
       <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>劳动与社会保障学周志刚 (10-18周) 工商管理2018-1-2</t>
-        </is>
-      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="inlineStr">
         <is>
           <t>物流战略管理崔巍 (11-18周) 物流管理2020-1-2</t>
@@ -836,7 +830,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>工商管理学科前沿﹡方宏 (11-19周) 工商管理2018-1-2</t>
+          <t>工商管理学科前沿﹡方宏 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="U3" t="inlineStr"/>
@@ -871,9 +865,17 @@
           <t>环境工程专业导论刘音 (12-19周) 环境工程2021-3-4</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (18周) 应用化学2021-1</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
@@ -897,7 +899,11 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>公司治理周志刚 (18周) 工商管理2018-1-2</t>
+        </is>
+      </c>
       <c r="W4" t="inlineStr">
         <is>
           <t>安全工程专业导论贺正龙 (12-19周) 安全工程2021-2</t>
@@ -946,7 +952,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -956,7 +962,11 @@
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>公司治理周志刚 (18周) 工商管理2018-1-2</t>
+        </is>
+      </c>
       <c r="M5" t="inlineStr">
         <is>
           <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2020-1-2</t>
@@ -976,7 +986,7 @@
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="inlineStr">
         <is>
-          <t>港口与自贸区物流董兴林 (12-19周) 物流管理2020-1-2</t>
+          <t>港口与自贸区物流董兴林 (12-18周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="S5" t="inlineStr"/>
@@ -985,7 +995,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -995,24 +1005,28 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>微观经济学（A）任一鑫 (8-19周) 会计辅修 2020版</t>
+          <t>微观经济学（A）任一鑫 (8-18周) 会计辅修 2020版</t>
         </is>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>微观经济学（A）任一鑫 (18周) 会计辅修 2020版</t>
+        </is>
+      </c>
       <c r="AG5" t="inlineStr">
         <is>
           <t>经济法（B）陈金库 (11-18周) 会计辅修 2020版</t>
@@ -1048,7 +1062,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -1068,7 +1082,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1089,14 +1103,18 @@
           <t>无机化学李志超 (13-18周) 金属材料工程2021-1-2</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr"/>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>文献检索与科技论文撰写崔蓝月 (18周) 材料化学2019-2</t>
+        </is>
+      </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>文献检索与科技论文撰写崔蓝月 (12-19周) 材料化学2019-2</t>
+          <t>文献检索与科技论文撰写崔蓝月 (12-18周) 材料化学2019-2</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr"/>
@@ -1121,16 +1139,16 @@
           <t>J14-109室</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)王惠 (18周) 安全工程2021-4</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>采矿工程导论樊克恭 (12-19周) 采矿工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
           <t>矿山环境概论刘立民 (16-19周) 采矿工程2020-2</t>
@@ -1190,11 +1208,7 @@
           <t>J14-111室</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
           <t>国际市场营销金伟 (10-18周) 国际经济与贸易2018-1-2</t>
@@ -1202,14 +1216,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>国际贸易侯贵生 (8-19周) 国际经济与贸易2020-1-2</t>
+          <t>国际贸易侯贵生 (8-18周) 国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1220,11 +1234,7 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>政府及非营利组织会计崔树德 (11-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
           <t>金融市场学*闻德美 (10-18周) 金融学2019-1-2</t>
@@ -1288,7 +1298,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>普通化学马林政 (14-19周) 机械电子工程2021-4-6</t>
+          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
@@ -1307,11 +1317,15 @@
       <c r="P9" t="inlineStr"/>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="inlineStr"/>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>普通化学马林政 (14-19周) 机械电子工程2021-4-6</t>
+          <t>普通化学马林政 (14-18周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1491,7 +1505,11 @@
           <t>安全工程专业导论杨文宇 (12-19周) 安全工程2021-3</t>
         </is>
       </c>
-      <c r="X12" t="inlineStr"/>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>生物医用材料崔蓝月 (18周) 材料化学2018-1-2</t>
+        </is>
+      </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
       <c r="AA12" t="inlineStr"/>
@@ -1517,7 +1535,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1534,7 +1552,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1552,7 +1570,7 @@
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1564,17 +1582,17 @@
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="inlineStr">
         <is>
-          <t>经济法（C）陈金库 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>经济法（C）陈金库 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>技术经济学陈会英 (11-19周) 工商管理2019-1-2</t>
+          <t>技术经济学陈会英 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1585,7 +1603,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>运筹学（B）辛宝贵 (11-19周) 电子商务2019-1-2</t>
+          <t>运筹学（B）辛宝贵 (11-18周) 电子商务2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -1602,12 +1620,12 @@
       <c r="AA13" t="inlineStr"/>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>微观经济学（A）焦习燕 (8-19周) 国际经济与贸易(辅修)2020-1</t>
+          <t>微观经济学（A）焦习燕 (9-18周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr"/>
@@ -1625,12 +1643,12 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (12-19周) 工商管理辅修 2020版</t>
+          <t>会计学(B)刘英姿 (12-16,18周) 工商管理辅修 2020版</t>
         </is>
       </c>
       <c r="AK13" t="inlineStr"/>
@@ -1656,7 +1674,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1668,7 +1686,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -1676,7 +1694,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1743,7 +1761,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1796,11 +1814,15 @@
       </c>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>生物工程学科前沿王博 (18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -1830,7 +1852,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -1996,10 +2022,14 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）王路 (18周) 高分子材料与工程2021-1-3</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2025,7 +2055,7 @@
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）王路 (12-19周) 高分子材料与工程2021-1-3</t>
+          <t>计算机程序设计基础（Python语言）王路 (12-18周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -2047,7 +2077,11 @@
           <t>电工电子技术（B）马进 (11-18周) 高分子材料与工程2020-1-3</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）王路 (18周) 高分子材料与工程2021-1-3</t>
+        </is>
+      </c>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -2084,7 +2118,7 @@
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2211,7 +2245,7 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2221,7 +2255,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -2275,7 +2309,7 @@
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械吴蓬 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2300,9 +2334,17 @@
           <t>海洋生物资源评估邱日 (10-18周) 环境工程（海洋环境方向）2018</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>生物医用材料崔蓝月 (18周) 材料化学2018-1-2</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械吴蓬 (18周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr">
@@ -2357,18 +2399,14 @@
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>机械制造技术基础杨俊茹 (8-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2428,7 +2466,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2441,12 +2479,12 @@
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>生物医用材料崔蓝月 (12-19周) 材料化学2018-1-2</t>
+          <t>生物医用材料崔蓝月 (12-18周) 材料化学2018-1-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
@@ -2459,19 +2497,19 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (13-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (13-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>第三方物流董兴林 (11-19周) 物流管理2018-1-2</t>
+          <t>第三方物流董兴林 (11-18周) 物流管理2018-1-2</t>
         </is>
       </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="inlineStr">
         <is>
-          <t>消费者行为学宋平 (11-19周) 工商管理2019-1-2</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -2485,7 +2523,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>财政学(A)陈昕 (12-19周) 金融学2020-1-2</t>
+          <t>财政学(A)陈昕 (12-18周) 金融学2020-1-2</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -2498,22 +2536,22 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
         <is>
-          <t>国际商法（A）刘本玲 (8-19周) 国际经济与贸易(辅修) 2019版</t>
+          <t>国际商法（A）刘本玲 (8-18周) 国际经济与贸易(辅修) 2019版</t>
         </is>
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
-          <t>国际贸易马风涛 (8-19周) 国际经济与贸易(辅修)2020</t>
+          <t>国际贸易马风涛 (8-18周) 国际经济与贸易(辅修)2020</t>
         </is>
       </c>
       <c r="AK24" t="inlineStr"/>
@@ -2570,7 +2608,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -2616,10 +2654,14 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>零件失效分析李敏 (11-18周) 金属材料工程2018-1-3</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr"/>
+          <t>零件失效分析李敏 (11-12,14-18周) 金属材料工程2018-1-3</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械张同环 (18周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="O26" t="inlineStr">
         <is>
           <t>无机化学邱鹏 (13-18周) 金属材料工程2021-3-4</t>
@@ -2642,7 +2684,11 @@
         </is>
       </c>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械张同环 (18周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -2669,7 +2715,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2693,8 +2739,16 @@
           <t>机械设计制造及其自动化专业导论王全为 (16-19周) 机械设计制造及其自动化2021-1-3</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)李美 (18周) 遥感科学与技术2021-2</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)李美 (18周) 遥感科学与技术2021-2</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
@@ -2749,7 +2803,7 @@
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2761,7 +2815,7 @@
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
-          <t>破碎磨矿李琳 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>破碎磨矿李琳 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
@@ -2771,23 +2825,23 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>生物工程学科前沿王博 (12-19周) 生物工程2020-1-2</t>
+          <t>生物工程学科前沿王博 (12-18周) 生物工程2020-1-2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>应用化学专业新生研讨课赵沛文 (18-19周) 应用化学2021-1-2</t>
+          <t>应用化学专业新生研讨课赵沛文 (18周) 应用化学2021-1-2</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -2843,7 +2897,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -2853,7 +2907,11 @@
           <t>数学物理方程与特殊函数王敏 (11-18周) 地质工程2020-1-3</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>文献检索与论文写作刘露 (18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr">
         <is>
@@ -2878,7 +2936,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -2984,7 +3042,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3014,7 +3072,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>国际货物运输与保险焦习燕 (11-19周) 国际经济与贸易2019-1-2</t>
+          <t>国际货物运输与保险焦习燕 (11-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3026,7 +3084,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-19周) 物流管理2019-1-2</t>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3061,7 +3119,7 @@
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
         <is>
-          <t>会计信息系统刘超 (6-19周) 会计学(辅修) 2019版</t>
+          <t>会计信息系统刘超 (6-18周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AH31" t="inlineStr"/>
@@ -3090,7 +3148,7 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>机械工程控制基础陈毕胜 (10-18周) 机械电子工程(留学生)2019</t>
+          <t>消费者行为学宋平 (11-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="J32" t="inlineStr"/>
@@ -3104,7 +3162,7 @@
       <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr">
         <is>
-          <t>工程力学姜兰越,李晓宇 (12-19周) 能源与动力工程2020-1-3</t>
+          <t>工程力学姜兰越,李晓宇 (12-18周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -3224,11 +3282,7 @@
           <t>J14-316室</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
@@ -3238,11 +3292,7 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>金融学(A)邢苗 (8-19周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr">
         <is>
@@ -3255,7 +3305,7 @@
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="U34" t="inlineStr"/>
@@ -3368,7 +3418,7 @@
       <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr"/>
@@ -3376,12 +3426,12 @@
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr"/>
@@ -3410,7 +3460,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3427,19 +3477,19 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>数学物理方程王德营 (8-19周) 勘查技术与工程2020-1-2</t>
+          <t>数学物理方程王德营 (8-12,14-19周) 勘查技术与工程2020-1-2</t>
         </is>
       </c>
       <c r="R37" t="inlineStr"/>
@@ -3454,12 +3504,20 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)刘海英 (18周) 机械电子工程2021-4</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)刘海英 (18周) 机械电子工程2021-4</t>
+        </is>
+      </c>
       <c r="AB37" t="inlineStr"/>
       <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
@@ -3517,7 +3575,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -3638,7 +3696,7 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>普通化学（B）赵沛文 (12-19周) 机械设计制造及其自动化2021-3-4</t>
+          <t>普通化学（B）赵沛文 (12-18周) 机械设计制造及其自动化2021-3-4</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -3655,11 +3713,7 @@
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
@@ -3702,7 +3756,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -3763,7 +3817,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3998,7 +4052,7 @@
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
-          <t>普通化学王勇梅 (8-19周) 安全工程2020-3-4</t>
+          <t>普通化学王勇梅 (8-18周) 安全工程2020-3-4</t>
         </is>
       </c>
       <c r="M45" t="inlineStr"/>
@@ -4090,7 +4144,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
@@ -4328,7 +4382,7 @@
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-4</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-4</t>
         </is>
       </c>
       <c r="S49" t="inlineStr"/>
@@ -4337,7 +4391,7 @@
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
-          <t>安全工程专业导论孔彪 (12-19周) 安全工程2021-5</t>
+          <t>安全工程专业导论孔彪 (13-19周) 安全工程2021-5</t>
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
@@ -4390,11 +4444,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -4419,12 +4469,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -4445,19 +4495,15 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>微观经济学(A)赵金凯 (8-19周) 国际经济与贸易2021-1</t>
+          <t>微观经济学(A)赵金凯 (8-18周) 国际经济与贸易2021-1</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr"/>
@@ -4469,14 +4515,10 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>银行结算*邢苗 (11-19周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr">
         <is>
-          <t>运筹学（B）李洪伟 (11-19周) 工商管理2019-1</t>
+          <t>运筹学（B）李洪伟 (11-18周) 工商管理2019-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -4660,7 +4702,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>空间数据库张蕾 (11-18周) 地理信息科学2020-3</t>
+          <t>空间数据库张蕾 (12-18周) 地理信息科学2020-3</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -4715,7 +4757,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -4724,7 +4766,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -4733,7 +4775,7 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr"/>
@@ -4742,10 +4784,14 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr"/>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
@@ -4787,17 +4833,13 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
@@ -4922,7 +4964,7 @@
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>普通化学（B）唐尧基 (12-19周) 机械设计制造及其自动化2021-2</t>
+          <t>普通化学（B）唐尧基 (12-18周) 机械设计制造及其自动化2021-2</t>
         </is>
       </c>
       <c r="T58" t="inlineStr"/>
@@ -4989,7 +5031,11 @@
       <c r="X59" t="inlineStr"/>
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>流体力学与流体机械吴蓬 (18周) 矿物加工工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AB59" t="inlineStr"/>
       <c r="AC59" t="inlineStr"/>
       <c r="AD59" t="inlineStr"/>
@@ -5026,7 +5072,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr"/>
@@ -5037,11 +5083,7 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>工程力学邱月 (7-18周) 金属材料工程2020-3-4</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
@@ -5082,7 +5124,7 @@
       <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -5090,7 +5132,7 @@
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
@@ -5103,7 +5145,7 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>公司治理周志刚 (11-19周) 工商管理2018-1-2</t>
+          <t>公司治理周志刚 (11-18周) 工商管理2018-1-2</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -5116,7 +5158,7 @@
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr">
         <is>
-          <t>公司理财(A)孟科学 (11-19周) 金融学2019-1-2</t>
+          <t>公司理财(A)孟科学 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5129,7 +5171,7 @@
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -5176,7 +5218,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -5306,7 +5348,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -5323,12 +5365,12 @@
       <c r="Q64" t="inlineStr"/>
       <c r="R64" t="inlineStr">
         <is>
-          <t>流体力学与流体机械吴蓬 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械吴蓬 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>金融经济学秦晓钰 (11-19周) 金融学2019-1-2</t>
+          <t>金融经济学秦晓钰 (11-18周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
@@ -5340,7 +5382,7 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -5508,7 +5550,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>经济法王彩霞 (11-19周) 投资学2019-1-2</t>
+          <t>经济法王彩霞 (11-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -5591,7 +5633,7 @@
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (12-19周) 矿物加工工程2020-1-3</t>
+          <t>流体力学与流体机械张同环 (12-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="S68" t="inlineStr"/>
@@ -5625,12 +5667,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -5661,12 +5703,12 @@
       <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-4-6</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-4-6</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>机械设计基础（B）王明燕 (12-19周) 采矿工程2020-1-3</t>
+          <t>机械设计基础（B）王明燕 (12-18周) 采矿工程2020-1-3</t>
         </is>
       </c>
       <c r="U69" t="inlineStr"/>
@@ -5819,11 +5861,7 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>传感器与检测技术杜小振 (10-18周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -5874,7 +5912,7 @@
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr">
         <is>
-          <t>催化化学陈伟 (11-19周) 应用化学2018-1-3</t>
+          <t>催化化学陈伟 (11-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -5882,7 +5920,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
@@ -5996,23 +6034,31 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化学软件应用技术高猛 (12-19周) 应用化学2018-1-3</t>
+          <t>化学软件应用技术高猛 (12-18周) 应用化学2018-1-3</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
-          <t>有机化学（2-2）卢文欣 (11-19周) 化学工程与工艺2020-1-3</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
+          <t>有机化学（2-2）卢文欣 (11-18周) 化学工程与工艺2020-1-3</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）陈雪 (18周) 材料化学2021-1-2</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>化学软件应用技术高猛 (18周) 应用化学2018-1-3</t>
+        </is>
+      </c>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
@@ -6023,7 +6069,7 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X75" t="inlineStr"/>
@@ -6031,7 +6077,7 @@
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -6056,7 +6102,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -6069,11 +6115,15 @@
           <t>文献检索与科技论文撰写李硕琦 (12-19周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr"/>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）孙海滨 (18周) 新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="inlineStr">
         <is>
-          <t>流体力学与流体机械张同环 (11-19周) 矿物加工工程2019-1-3</t>
+          <t>流体力学与流体机械张同环 (11-18周) 矿物加工工程2019-1-3</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
@@ -6092,14 +6142,14 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
       <c r="R76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）孙海滨 (12-19周) 新能源材料与器件2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）孙海滨 (12-18周) 新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
@@ -6107,9 +6157,17 @@
           <t>高分子物理赵丽芬 (7-18周) 高分子材料与工程2019-3</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr"/>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）陈雪 (18周) 材料化学2021-1-2</t>
+        </is>
+      </c>
       <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr"/>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（Python语言）孙海滨 (18周) 新能源材料与器件2021-1-2</t>
+        </is>
+      </c>
       <c r="W76" t="inlineStr">
         <is>
           <t>无机化学黄小文 (13-18周) 材料化学2021-2</t>
@@ -6117,7 +6175,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>计算机程序设计基础（Python语言）陈雪 (12-19周) 材料化学2021-1-2</t>
+          <t>计算机程序设计基础（Python语言）陈雪 (12-18周) 材料化学2021-1-2</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -6144,7 +6202,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-504室</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -6157,34 +6215,22 @@
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
       <c r="P77" t="inlineStr"/>
       <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)姜妮 (18周) 法学2021-4</t>
+        </is>
+      </c>
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
@@ -6205,88 +6251,48 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>J14-514室</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>J14-512室</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
         <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
+          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
         </is>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
       <c r="Q78" t="inlineStr"/>
       <c r="R78" t="inlineStr">
         <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
+          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t>景观设计（一）仇同文 (16-18周) 环境设计2019-1</t>
-        </is>
-      </c>
+          <t>装饰基础孙彤彤 (15-19周) 环境设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
-        </is>
-      </c>
-      <c r="Y78" t="inlineStr">
-        <is>
-          <t>景观设计（一）李晓君 (16-18周) 环境设计2019-2</t>
-        </is>
-      </c>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
@@ -6306,64 +6312,88 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
       <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="inlineStr">
         <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>景观设计（一）仇同文 (16-19周) 环境设计2019-1</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>景观设计（一）仇同文 (16-18周) 环境设计2019-1</t>
+        </is>
+      </c>
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
-      <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
+      <c r="W79" t="inlineStr">
+        <is>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>景观设计（一）李晓君 (16-19周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="Y79" t="inlineStr">
+        <is>
+          <t>景观设计（一）李晓君 (16-18周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -6383,46 +6413,58 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>J14-524室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr"/>
+          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>环境设计初步刘燕 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>环境设计初步许士朋 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr">
-        <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
@@ -6448,12 +6490,24 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>J14-528室</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+          <t>J14-524室</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="inlineStr"/>
@@ -6468,45 +6522,21 @@
       <c r="Q81" t="inlineStr"/>
       <c r="R81" t="inlineStr">
         <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
+          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
-        </is>
-      </c>
+          <t>装饰基础宋美音 (17-19周) 视觉传达设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
-        <is>
-          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
-        </is>
-      </c>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
       <c r="AC81" t="inlineStr"/>
@@ -6525,31 +6555,15 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
@@ -6559,15 +6573,47 @@
       <c r="O82" t="inlineStr"/>
       <c r="P82" t="inlineStr"/>
       <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr"/>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr"/>
-      <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-      <c r="Z82" t="inlineStr"/>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>设计思维与表达武宇翔 (14-19周) 产品设计2020-2</t>
+        </is>
+      </c>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
       <c r="AC82" t="inlineStr"/>
@@ -6586,15 +6632,31 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>J14-538室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
       <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>平面设计基础李宗源 (14-19周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
@@ -6604,48 +6666,16 @@
       <c r="O83" t="inlineStr"/>
       <c r="P83" t="inlineStr"/>
       <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
+      <c r="R83" t="inlineStr"/>
       <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="Z83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="AA83" t="inlineStr">
-        <is>
-          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
-        </is>
-      </c>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
       <c r="AC83" t="inlineStr"/>
       <c r="AD83" t="inlineStr"/>
@@ -6663,7 +6693,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>J14-540室</t>
+          <t>J14-538室</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -6676,49 +6706,53 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr">
-        <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
       <c r="P84" t="inlineStr"/>
       <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="S84" t="inlineStr"/>
       <c r="T84" t="inlineStr">
         <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr"/>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>设计色彩(1-1)李宗源 (17-19周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="W84" t="inlineStr">
         <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr">
-        <is>
-          <t>人机工程学王晓娜 (11-19周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr"/>
-      <c r="Z84" t="inlineStr"/>
-      <c r="AA84" t="inlineStr"/>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
+        <is>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
+        </is>
+      </c>
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>设计色彩(1-1)李宗源 (15-19周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="AB84" t="inlineStr"/>
       <c r="AC84" t="inlineStr"/>
       <c r="AD84" t="inlineStr"/>
@@ -6736,48 +6770,68 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>J14-525室</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
+          <t>J14-540室</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+      <c r="G85" t="inlineStr"/>
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+      <c r="Q85" t="inlineStr"/>
       <c r="R85" t="inlineStr"/>
       <c r="S85" t="inlineStr"/>
       <c r="T85" t="inlineStr">
         <is>
-          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
-      <c r="U85" t="inlineStr"/>
+          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>产品设计（Ⅱ）王晓娜 (14-19周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr"/>
-      <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
-        <is>
-          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
-        </is>
-      </c>
+      <c r="W85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>人机工程学王晓娜 (11-18周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -6797,18 +6851,18 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>J14-332室</t>
+          <t>J14-525室</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
-        </is>
-      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -6818,15 +6872,27 @@
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
       <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (17-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="R86" t="inlineStr"/>
       <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>地质学基础孔凡梅,倪金龙,张春荣 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
       <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>机械设计基础（A）陈修龙 (8-19周) 采矿工程（宋振骐班）</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -6840,6 +6906,55 @@
       <c r="AJ86" t="inlineStr"/>
       <c r="AK86" t="inlineStr"/>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>变质岩岩石学孔凡梅 (13-18周) 资源勘查工程2020-1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/18.xlsx
+++ b/excel/18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK61"/>
+  <dimension ref="A1:AK60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,10 +735,8 @@
           <t>0506</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>0708</t>
-        </is>
+      <c r="Z2" t="n">
+        <v>708</v>
       </c>
       <c r="AA2" t="n">
         <v>910</v>
@@ -1670,11 +1668,7 @@
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
@@ -1701,11 +1695,7 @@
       </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
@@ -1843,41 +1833,85 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>J14-304室</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
+          <t>J14-305室</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
+        </is>
+      </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>工程材料与热加工工艺孙静 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>宏观经济学(A)孟文强 (8-19周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
       <c r="AC18" t="inlineStr"/>
@@ -1886,8 +1920,16 @@
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
+        </is>
+      </c>
       <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1896,84 +1938,48 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>J14-305室</t>
+          <t>J14-306室</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
-        </is>
-      </c>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr">
         <is>
-          <t>应用统计学（B）马媛 (12-19周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
-        </is>
-      </c>
+          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>运筹学(D)饶卫振 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
-      <c r="T19" t="inlineStr">
-        <is>
-          <t>运筹学张杰 (8-19周) 物流管理2020-1-2</t>
-        </is>
-      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
-      <c r="W19" t="inlineStr">
-        <is>
-          <t>宏观经济学(A)孟文强 (8-19周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
+      <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr">
         <is>
-          <t>商品学概论刘本玲 (11-18周) 国际经济与贸易2021-1-2</t>
-        </is>
-      </c>
-      <c r="Y19" t="inlineStr">
-        <is>
-          <t>成本会计马红 (10-19周) 会计学2020-1-2</t>
-        </is>
-      </c>
+          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr"/>
       <c r="AA19" t="inlineStr"/>
       <c r="AB19" t="inlineStr"/>
@@ -1983,16 +1989,8 @@
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr">
-        <is>
-          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
-        </is>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>人力资源管理（A）韩帅 (7-18周) 工商管理(辅修)2020</t>
-        </is>
-      </c>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -2001,14 +1999,10 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>J14-306室</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-307室</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
@@ -2018,16 +2012,8 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>物流系统仿真姜力文 (13-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -2036,12 +2022,12 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>管理学研究方法（A）杨珍花 (10-18周) 物流管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）袁方 (10,12-13,16-18周) 新能源材料与器件2020-1-2</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
@@ -2062,34 +2048,54 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>J14-307室</t>
+          <t>J14-309室</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>采选冶概论刘振学 (11-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="S21" t="inlineStr"/>
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）袁方 (10,12-13,16-18周) 新能源材料与器件2020-1-2</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -2111,55 +2117,43 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>J14-309室</t>
+          <t>J14-310室</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+          <t>微观经济学(A)陈爱萍 (8-19周) 会计学2021-2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>采选冶概论刘振学 (11-18周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr">
         <is>
-          <t>细胞工程邹玉红 (10-18周) 生物工程2019-2</t>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>药物学基础邹玉红 (11-19周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="R22" t="inlineStr"/>
       <c r="S22" t="inlineStr"/>
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -2180,29 +2174,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>J14-310室</t>
+          <t>J14-311室</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>微观经济学(A)陈爱萍 (8-19周) 会计学2021-2</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+        </is>
+      </c>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -2210,14 +2204,18 @@
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>国际经济合作*李淑云 (10-18周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+        </is>
+      </c>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -2237,48 +2235,60 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>J14-311室</t>
+          <t>J14-312室</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>经济法（C）王彩霞 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr">
         <is>
-          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
         </is>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>微观经济学(A)陶敏 (8-19周) 工商管理2021-1-2</t>
+        </is>
+      </c>
       <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
+        </is>
+      </c>
       <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>普通化学柏中朝 (11-18周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>机械制图（2）朱苏宁 (8-9,12-19周) 机械电子工程(留学生)2021</t>
-        </is>
-      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -2298,13 +2308,13 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>J14-312室</t>
+          <t>J14-316室</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr">
         <is>
-          <t>经济法（C）王彩霞 (11-18周) 金融学2020-1-2</t>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
@@ -2313,44 +2323,28 @@
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr">
         <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
+          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
-        </is>
-      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>微观经济学(A)陶敏 (8-19周) 工商管理2021-1-2</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr">
-        <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理2019-1-2</t>
-        </is>
-      </c>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr">
-        <is>
-          <t>商业银行会计孙玉红 (11-18周) 金融学2020-1-2</t>
-        </is>
-      </c>
+      <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
@@ -2371,24 +2365,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>J14-316室</t>
+          <t>J14-320室</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr"/>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>经济博弈论张伟 (10-18周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -2397,10 +2391,14 @@
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
+        </is>
+      </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>计算机程序设计(VF)任艳伟 (13-18周) 会计学2020-1-2</t>
+          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
         </is>
       </c>
       <c r="T26" t="inlineStr"/>
@@ -2428,20 +2426,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>J14-320室</t>
+          <t>J14-321室</t>
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-1</t>
-        </is>
-      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2450,26 +2440,30 @@
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）姜慧 (11-18周) 工业工程2020-1</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>运输与配送管理于灏 (11-19周) 物流管理2019-2</t>
-        </is>
-      </c>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>思想政治理论课综合实践张建飞 (4-5,18-19周) 机械设计制造及其自动化2020-1-4</t>
+        </is>
+      </c>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -2489,12 +2483,20 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>J14-321室</t>
+          <t>J14-330室</t>
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>审计学（A）刘英姿 (6-19周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2502,13 +2504,21 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr"/>
+          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>审计学（A）刘英姿 (7-19周) 会计学2019-1-2</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="inlineStr"/>
@@ -2519,14 +2529,10 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr">
         <is>
-          <t>地史学周长付 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>思想政治理论课综合实践张建飞 (4-5,18-19周) 机械设计制造及其自动化2020-1-4</t>
-        </is>
-      </c>
+          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
@@ -2546,20 +2552,16 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>J14-330室</t>
+          <t>J14-334室</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>审计学（A）刘英姿 (6-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2567,21 +2569,9 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>金融学（B）聂国栋 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>审计学（A）刘英姿 (7-19周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr"/>
@@ -2590,11 +2580,7 @@
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr">
-        <is>
-          <t>世界经济概论曲越 (12-19周) 国际经济与贸易2020-1-2</t>
-        </is>
-      </c>
+      <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
@@ -2615,36 +2601,64 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>J14-334室</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+          <t>J14-340室</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -2664,62 +2678,58 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>J14-340室</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+          <t>J14-342室</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）高登征 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>工程概论王永萍 (10-15,17-18周) 生物工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>物理化学邵谦 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (15-19周) 材料化学2020-1</t>
+        </is>
+      </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
+        </is>
+      </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>电工电子技术（B）马进 (11-19周) 应用化学2020-1-3</t>
+          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -2741,60 +2751,60 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>J14-342室</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>J14-405室</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-1</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-3</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr"/>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr">
-        <is>
-          <t>分析化学李硕琦 (15-19周) 材料化学2020-1</t>
-        </is>
-      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr">
         <is>
-          <t>分析化学黄小文 (12-18周) 高分子材料与工程2020-2</t>
-        </is>
-      </c>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>结构化学孙海清 (11-18周) 新能源材料与器件2020-1</t>
-        </is>
-      </c>
+          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -2814,57 +2824,53 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>J14-405室</t>
+          <t>J14-409室</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>金融工程*尘娜 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>投资银行学孟科学 (10-18周) 金融学2019-1-2</t>
-        </is>
-      </c>
+          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>国际贸易合同刘本玲 (11-19周) 国际经济与贸易2019-1-2</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
+        </is>
+      </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19双周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>文献检索与论文写作刘露 (11-18周) 物流管理2020-1-2</t>
+          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr"/>
@@ -2887,55 +2893,51 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>J14-409室</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>J14-410室</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）王翠珍 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>高分子物理崔立强 (11-15,17-19周) 应用化学2019-1-3</t>
-        </is>
-      </c>
+      <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19双周) 应用化学2020-1-3</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>计算机程序设计基础（C语言）鲁法明 (12-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
@@ -2956,50 +2958,54 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>J14-410室</t>
+          <t>J14-413室</t>
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr">
         <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+          <t>EXCEL财务应用刘立华 (5-18周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
+        </is>
+      </c>
       <c r="O35" t="inlineStr"/>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>机械设计基础（B）于蓉蓉 (11-18周) 工业工程2020-2</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>市场营销学(A)吕晓菲 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
+        </is>
+      </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
@@ -3021,56 +3027,56 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>J14-413室</t>
+          <t>J14-414室</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>EXCEL财务应用刘立华 (5-18周) 会计学2019-1-2</t>
-        </is>
-      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>期货与期权闻德美 (11-19周) 投资学2019-1-2</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr"/>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>创业管理马恒平 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr">
         <is>
-          <t>人力资源管理(A)周志刚 (8-19周) 工商管理(体育)2020</t>
-        </is>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="Z36" t="inlineStr"/>
       <c r="AA36" t="inlineStr"/>
       <c r="AB36" t="inlineStr"/>
@@ -3090,7 +3096,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>J14-414室</t>
+          <t>J14-416室</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -3098,48 +3104,32 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>微观经济学(A)赵友宝 (8-19周) 工商管理(体育)2021</t>
-        </is>
-      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr">
         <is>
-          <t>战略管理（A）方宏 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>水文地质学基础高宗军,张彧齐 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
@@ -3159,7 +3149,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>J14-416室</t>
+          <t>J14-418室</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -3167,11 +3157,7 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
-        </is>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
@@ -3186,12 +3172,12 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr">
-        <is>
-          <t>结构化学刘瑞 (11-18周) 新能源材料与器件2020-2</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
@@ -3212,11 +3198,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>J14-418室</t>
+          <t>J14-419室</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
@@ -3230,16 +3220,16 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr">
-        <is>
-          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
-        </is>
-      </c>
+      <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -3261,15 +3251,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>J14-419室</t>
+          <t>J14-421室</t>
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
@@ -3279,13 +3265,17 @@
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>GIS基础与地学应用刘一霖 (11-18周) 勘查技术与工程2020-1-2</t>
+          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -3293,7 +3283,11 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
@@ -3314,7 +3308,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>J14-421室</t>
+          <t>J14-430室</t>
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
@@ -3328,30 +3322,22 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>品牌管理吕晓菲 (10-18周) 工商管理(社会体育指导与管理)2019</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>地史学王平丽 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+        </is>
+      </c>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -3371,15 +3357,23 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>J14-430室</t>
+          <t>J14-436室</t>
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
@@ -3389,7 +3383,11 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -3398,7 +3396,7 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>数字测图原理与方法王健 (12-19周) 遥感科学与技术2021-1</t>
+          <t>细胞工程闫华晓 (10-18周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr"/>
@@ -3420,48 +3418,44 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>J14-436室</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>化工原理李敏 (1-15,17-19周) 应用化学2019-1-2</t>
-        </is>
-      </c>
+          <t>J14-440室</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
+        </is>
+      </c>
       <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>计算机程序设计（VB）由晓芳 (12-19周) 矿物加工工程2021-1-3</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>物理化学黄永清 (4-19周) 应用化学2020-1-3</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>细胞工程闫华晓 (10-18周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
       <c r="AA43" t="inlineStr"/>
       <c r="AB43" t="inlineStr"/>
@@ -3481,14 +3475,10 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>J14-440室</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+          <t>J14-442室</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
@@ -3497,18 +3487,14 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>有机化学（2-1）卢文欣 (12-19周) 化学工程与工艺2021-1-3班,生物工程2021-1-2</t>
-        </is>
-      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>计算机程序设计（VB）由晓芳 (12-19周) 矿物加工工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr"/>
@@ -3517,7 +3503,11 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
+        </is>
+      </c>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>
       <c r="AA44" t="inlineStr"/>
@@ -3538,40 +3528,64 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>J14-442室</t>
+          <t>J14-503室</t>
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
-        </is>
-      </c>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
+        </is>
+      </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr">
         <is>
-          <t>分析化学李硕琦 (8-19周) 材料化学2020-2</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr"/>
+          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -3591,64 +3605,48 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>J14-503室</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
-        </is>
-      </c>
+          <t>J14-504室</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
+      <c r="N46" t="inlineStr"/>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr"/>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
+        </is>
+      </c>
       <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>电子商务孙丽华 (13-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>网络营销（A）侯艳辉 (10-18周) 电子商务2019-2</t>
-        </is>
-      </c>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (12-19周) 大数据管理与应用2021-1</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>Java程序设计周长红 (13-19周) 大数据管理与应用2021-2</t>
-        </is>
-      </c>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3668,42 +3666,34 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>J14-504室</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-2</t>
-        </is>
-      </c>
+          <t>J14-513室</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>工业设计史武宇翔 (9-14,17-18周) 工业设计2019-1</t>
-        </is>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
@@ -3729,39 +3719,63 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>J14-513室</t>
+          <t>J14-512室</t>
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>材料力学谭涛 (11-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
+        </is>
+      </c>
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
@@ -3782,63 +3796,35 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>J14-512室</t>
+          <t>J14-514室</t>
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
-        </is>
-      </c>
+      <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>空间设计思维创意与表现李王婷 (16-19周) 环境设计2020-1</t>
+          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
         </is>
       </c>
       <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>空间设计思维创意与表现许士朋 (16-19周) 环境设计2020-2</t>
-        </is>
-      </c>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
@@ -3859,13 +3845,21 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>J14-514室</t>
+          <t>J14-516室</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
@@ -3877,14 +3871,18 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
+        </is>
+      </c>
       <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>中外建筑史孙照栋 (1-18周) 环境设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
@@ -3908,21 +3906,17 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>J14-516室</t>
+          <t>J14-533室</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr"/>
@@ -3930,20 +3924,16 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
+        </is>
+      </c>
       <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）甄珍 (16-19周) 环境设计2021-2</t>
-        </is>
-      </c>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
@@ -3969,29 +3959,25 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>J14-533室</t>
+          <t>J14-535室</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
+        </is>
+      </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>海洋地质学宋召军,许庆林 (12-19周) 资源勘查工程2020-1-3</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
@@ -4022,7 +4008,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>J14-535室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -4030,11 +4016,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>水文学原理张升堂 (11-18周) 水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
@@ -4046,11 +4028,27 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
+        </is>
+      </c>
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
@@ -4071,13 +4069,21 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-530室</t>
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr"/>
@@ -4089,29 +4095,21 @@
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
+        </is>
+      </c>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计张宁 (11-14,17-18周) 产品设计2020-1</t>
-        </is>
-      </c>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
@@ -4132,21 +4130,13 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>J14-530室</t>
+          <t>J14-532室</t>
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr"/>
@@ -4158,21 +4148,29 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>形态构成设计（二）李强 (16-19周) 环境设计2021-1</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
@@ -4193,7 +4191,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>J14-532室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
@@ -4206,32 +4204,32 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
-        </is>
-      </c>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>产品开发与创新设 计武宇翔 (11-14,17-18周) 产品设计2020-2</t>
+          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr"/>
@@ -4254,7 +4252,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
@@ -4267,17 +4265,13 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
@@ -4285,14 +4279,10 @@
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>产品透视与速写贾乐宾 (15-18周) 产品设计2021-1-2</t>
+          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -4315,7 +4305,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
@@ -4324,30 +4314,30 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+      <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr"/>
       <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>数字地形测量学王健 (8-19周) 测绘工程2021-1</t>
-        </is>
-      </c>
+      <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
@@ -4368,20 +4358,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-332室</t>
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
@@ -4391,12 +4385,12 @@
       <c r="P59" t="inlineStr"/>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>制图基础（B）戚美 (10-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+        </is>
+      </c>
+      <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
@@ -4421,43 +4415,67 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>矿物学赵延洋 (13-18周) 地质工程2021-3</t>
-        </is>
-      </c>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr">
         <is>
-          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>工程测量田茂义 (13-18周) 勘查技术与工程2020-1-2</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
@@ -4472,87 +4490,6 @@
       <c r="AJ60" t="inlineStr"/>
       <c r="AK60" t="inlineStr"/>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>J14-519室</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>基因工程(双语)赵辉 (10-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>基因工程(双语)闫华晓 (10-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>酶工程赵辉 (11-19周) 生物工程2019-2</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>酶工程闫华晓 (11-19周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
